--- a/medicine/Sexualité et sexologie/Ligature_des_trompes/Ligature_des_trompes.xlsx
+++ b/medicine/Sexualité et sexologie/Ligature_des_trompes/Ligature_des_trompes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ligature des trompes, parfois appelée tubectomie, est une procédure chirurgicale de stérilisation qui offre une contraception permanente, irréversible[1] et fiable aux femmes. 
-Elle est autorisée en France depuis 2001[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ligature des trompes, parfois appelée tubectomie, est une procédure chirurgicale de stérilisation qui offre une contraception permanente, irréversible et fiable aux femmes. 
+Elle est autorisée en France depuis 2001,.
 L'occlusion des trompes est une méthode de régulation permanente des naissances par une chirurgie qui est exécutée sous anesthésie générale et dure de 15 à 20 minutes.
 On emploie divers moyens pour fermer les trompes, comme la section et ligature des trompes ou l'obturation des trompes à l'aide d'un instrument.
 Pour avoir accès aux trompes, on fait le plus souvent une laparoscopie. L'instrument est mince et long pour pouvoir être introduit dans le corps par une très petite incision au-dessous du nombril; une laparoscopie permet au médecin de voir les trompes et de les fermer. 
